--- a/src/results/Faulkner-Fem-Percent-Spreadsheet.xlsx
+++ b/src/results/Faulkner-Fem-Percent-Spreadsheet.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="faulkner-fem-percent-no-names" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Title</t>
   </si>
@@ -241,6 +241,36 @@
   </si>
   <si>
     <t>#79962</t>
+  </si>
+  <si>
+    <t>AGGREGATE CATEGORIES</t>
+  </si>
+  <si>
+    <t>Early Novels</t>
+  </si>
+  <si>
+    <t>Mid-Career Novels</t>
+  </si>
+  <si>
+    <t>Late Novels</t>
+  </si>
+  <si>
+    <t>Yoknapatawpha Novels</t>
+  </si>
+  <si>
+    <t>Non-Yoknapatawpha Novels</t>
+  </si>
+  <si>
+    <t>Higher-Brow Novels</t>
+  </si>
+  <si>
+    <t>Lower-Brow Novels</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS</t>
+  </si>
+  <si>
+    <t>Moby-Dick</t>
   </si>
 </sst>
 </file>
@@ -784,6 +814,2959 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'faulkner-fem-percent-no-names'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fem%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'faulkner-fem-percent-no-names'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'faulkner-fem-percent-no-names'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>37.292523563495301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.753567464721698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.962567135029499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.1000761109268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.895567506766401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.7981356679473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.382152175631798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.563632723718399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.932948323708001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.658936749956503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.764143707112702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.474258215160299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7459670936277405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.1928860230966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.730584767784499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.6357404451122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.911287029183502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.102368141909501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.35825957482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="492947248"/>
+        <c:axId val="492943328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="492947248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492943328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492943328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492947248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FtM weighted ratio (FTMWR)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'faulkner-fem-percent-no-names'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FtM weighted ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'faulkner-fem-percent-no-names'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'faulkner-fem-percent-no-names'!$K$2:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.65498893747707299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67845687290293399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45826740009565498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76254327285535595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42052950600504202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85931460754493905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35950317486795702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17867623648731201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37176976348843799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68087574668483797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27544525428345201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19522322348806101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12280986844422</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12891484681903501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51909433169024699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13762127838413199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39859454056640398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26266827965917799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27926892483583099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="497836560"/>
+        <c:axId val="497838128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497836560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497838128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497838128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497836560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'faulkner-fem-percent-no-names'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fem% (strict)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'faulkner-fem-percent-no-names'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'faulkner-fem-percent-no-names'!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>21.430732849922101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.553194862850798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.1555672667808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.0049179368084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.3327357727863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.4366693959816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.563107819624101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.69026225608535</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.519612990324701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.4349237636964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7171051267698996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1936044193860598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0342819372242098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1040141645305299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.3902404994855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8108742604939403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.1166713787578</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.628560839393201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.658449830424299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="554680680"/>
+        <c:axId val="554682248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="554680680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554682248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554682248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554680680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1047,16 +4030,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
@@ -1771,1485 +4754,1847 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B24">
-        <v>24.858623646826299</v>
+        <f>AVERAGE(B2:B7)</f>
+        <v>36.967072908147834</v>
       </c>
       <c r="C24">
-        <v>75.141376353173598</v>
+        <f t="shared" ref="C24:K24" si="0">AVERAGE(C2:C7)</f>
+        <v>63.032927091852081</v>
       </c>
       <c r="D24">
-        <v>13.8020606768664</v>
+        <f t="shared" si="0"/>
+        <v>22.985636347521666</v>
       </c>
       <c r="E24">
-        <v>63.8871972060304</v>
+        <f t="shared" si="0"/>
+        <v>49.732027265289666</v>
       </c>
       <c r="F24">
-        <v>1284</v>
+        <f t="shared" si="0"/>
+        <v>2775.5</v>
       </c>
       <c r="G24">
-        <v>3106</v>
+        <f t="shared" si="0"/>
+        <v>4137</v>
       </c>
       <c r="H24">
-        <v>0.41339343206696699</v>
+        <f t="shared" si="0"/>
+        <v>0.68016057354362636</v>
       </c>
       <c r="I24">
-        <v>0.27053457609290099</v>
+        <f t="shared" si="0"/>
+        <v>0.38417972034630532</v>
       </c>
       <c r="J24">
-        <v>0.72946542390709801</v>
+        <f t="shared" si="0"/>
+        <v>0.61582027965369368</v>
       </c>
       <c r="K24">
-        <v>0.370866894065915</v>
+        <f t="shared" si="0"/>
+        <v>0.63901676614683323</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B25">
-        <v>37.032625079010003</v>
+        <f>AVERAGE(B8:B14)</f>
+        <v>22.217434141273635</v>
       </c>
       <c r="C25">
-        <v>62.967374920989897</v>
+        <f t="shared" ref="C25:K25" si="1">AVERAGE(C8:C14)</f>
+        <v>77.782565858726272</v>
       </c>
       <c r="D25">
-        <v>21.847295829889301</v>
+        <f t="shared" si="1"/>
+        <v>11.307556901872958</v>
       </c>
       <c r="E25">
-        <v>48.999205847555103</v>
+        <f t="shared" si="1"/>
+        <v>67.777352974672922</v>
       </c>
       <c r="F25">
-        <v>3174</v>
+        <f t="shared" si="1"/>
+        <v>1705.5714285714287</v>
       </c>
       <c r="G25">
-        <v>4765</v>
+        <f t="shared" si="1"/>
+        <v>5821.2857142857147</v>
       </c>
       <c r="H25">
-        <v>0.66610703043022002</v>
+        <f t="shared" si="1"/>
+        <v>0.31520841762718488</v>
       </c>
       <c r="I25">
-        <v>0.38506235703631497</v>
+        <f t="shared" si="1"/>
+        <v>0.22582686196842258</v>
       </c>
       <c r="J25">
-        <v>0.61493764296368503</v>
+        <f t="shared" si="1"/>
+        <v>0.77417313803157639</v>
       </c>
       <c r="K25">
-        <v>0.62618114444988404</v>
+        <f t="shared" si="1"/>
+        <v>0.31204332396346823</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B26">
-        <v>34.230793182903199</v>
+        <f>AVERAGE(B15:B20)</f>
+        <v>20.488520996984384</v>
       </c>
       <c r="C26">
-        <v>65.769206817096702</v>
+        <f t="shared" ref="C26:K26" si="2">AVERAGE(C15:C20)</f>
+        <v>79.511479003015509</v>
       </c>
       <c r="D26">
-        <v>21.759076661200201</v>
+        <f t="shared" si="2"/>
+        <v>10.951468495514213</v>
       </c>
       <c r="E26">
-        <v>53.044236397982203</v>
+        <f t="shared" si="2"/>
+        <v>70.274927570023877</v>
       </c>
       <c r="F26">
-        <v>957</v>
+        <f t="shared" si="2"/>
+        <v>1279</v>
       </c>
       <c r="G26">
-        <v>1821</v>
+        <f t="shared" si="2"/>
+        <v>4711.833333333333</v>
       </c>
       <c r="H26">
-        <v>0.52553542009884602</v>
+        <f t="shared" si="2"/>
+        <v>0.30623732325866154</v>
       </c>
       <c r="I26">
-        <v>0.343400186216892</v>
+        <f t="shared" si="2"/>
+        <v>0.21470097537209587</v>
       </c>
       <c r="J26">
-        <v>0.65659981378310694</v>
+        <f t="shared" si="2"/>
+        <v>0.78529902462790346</v>
       </c>
       <c r="K26">
-        <v>0.52299769053898304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>44.0570963083644</v>
-      </c>
-      <c r="C27">
-        <v>55.9429036916355</v>
-      </c>
-      <c r="D27">
-        <v>27.528973969711501</v>
-      </c>
-      <c r="E27">
-        <v>40.214573999333503</v>
-      </c>
-      <c r="F27">
-        <v>3197</v>
-      </c>
-      <c r="G27">
-        <v>3895</v>
-      </c>
-      <c r="H27">
-        <v>0.82079589216944804</v>
-      </c>
-      <c r="I27">
-        <v>0.44568029259653102</v>
-      </c>
-      <c r="J27">
-        <v>0.55431970740346803</v>
-      </c>
-      <c r="K27">
-        <v>0.80401307520560195</v>
+        <f t="shared" si="2"/>
+        <v>0.28769370032580444</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B28">
-        <v>27.951889120380599</v>
+        <f>AVERAGE(B4,B5,B6,B7,B8,B10,B11,B13,B14,B15,B16,B18,B19,B20)</f>
+        <v>27.017571036824883</v>
       </c>
       <c r="C28">
-        <v>72.048110879619301</v>
+        <f t="shared" ref="C28:K28" si="3">AVERAGE(C4,C5,C6,C7,C8,C10,C11,C13,C14,C15,C16,C18,C19,C20)</f>
+        <v>72.982428963175025</v>
       </c>
       <c r="D28">
-        <v>13.574774295550901</v>
+        <f t="shared" si="3"/>
+        <v>15.612382715371707</v>
       </c>
       <c r="E28">
-        <v>60.6158665425476</v>
+        <f t="shared" si="3"/>
+        <v>62.453059268837151</v>
       </c>
       <c r="F28">
-        <v>689</v>
+        <f t="shared" si="3"/>
+        <v>1899.5714285714287</v>
       </c>
       <c r="G28">
-        <v>1954</v>
+        <f t="shared" si="3"/>
+        <v>5031.5714285714284</v>
       </c>
       <c r="H28">
-        <v>0.35261003070624303</v>
+        <f t="shared" si="3"/>
+        <v>0.43178954715957446</v>
       </c>
       <c r="I28">
-        <v>0.270103751315107</v>
+        <f t="shared" si="3"/>
+        <v>0.27754054847818782</v>
       </c>
       <c r="J28">
-        <v>0.729896248684892</v>
+        <f t="shared" si="3"/>
+        <v>0.72245945152181112</v>
       </c>
       <c r="K28">
-        <v>0.37005773327616498</v>
+        <f t="shared" si="3"/>
+        <v>0.41566982050322865</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B29">
-        <v>18.686857090374701</v>
+        <f>AVERAGE(B2,B3,B9,B12,B17)</f>
+        <v>24.401921580832063</v>
       </c>
       <c r="C29">
-        <v>81.313142909625199</v>
+        <f t="shared" ref="C29:K29" si="4">AVERAGE(C2,C3,C9,C12,C17)</f>
+        <v>75.598078419167834</v>
       </c>
       <c r="D29">
-        <v>9.9421381337251997</v>
+        <f t="shared" si="4"/>
+        <v>12.840433871224416</v>
       </c>
       <c r="E29">
-        <v>72.560961609110905</v>
+        <f t="shared" si="4"/>
+        <v>64.028074014174337</v>
       </c>
       <c r="F29">
-        <v>2014</v>
+        <f t="shared" si="4"/>
+        <v>1934.4</v>
       </c>
       <c r="G29">
-        <v>7821</v>
+        <f t="shared" si="4"/>
+        <v>4680</v>
       </c>
       <c r="H29">
-        <v>0.25751182713207998</v>
+        <f t="shared" si="4"/>
+        <v>0.41595852879399525</v>
       </c>
       <c r="I29">
-        <v>0.19582371097297099</v>
+        <f t="shared" si="4"/>
+        <v>0.25770090587894701</v>
       </c>
       <c r="J29">
-        <v>0.80417628902702798</v>
+        <f t="shared" si="4"/>
+        <v>0.74229909412105211</v>
       </c>
       <c r="K29">
-        <v>0.24350843670098499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
-        <v>1.70753723484278</v>
-      </c>
-      <c r="C30">
-        <v>98.292462765157197</v>
-      </c>
-      <c r="D30">
-        <v>0.78982999849556201</v>
-      </c>
-      <c r="E30">
-        <v>97.028734767564302</v>
-      </c>
-      <c r="F30">
-        <v>51</v>
-      </c>
-      <c r="G30">
-        <v>2221</v>
-      </c>
-      <c r="H30">
-        <v>2.2962629446195398E-2</v>
-      </c>
-      <c r="I30">
-        <v>1.9761277723509701E-2</v>
-      </c>
-      <c r="J30">
-        <v>0.98023872227649</v>
-      </c>
-      <c r="K30">
-        <v>2.0159658330591499E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.38503771590698055</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B31">
-        <v>46.941405862718497</v>
+        <f>AVERAGE(B4,B5,B6,B8,B10,B12,B13,B14,B18,B19)</f>
+        <v>24.827133543905624</v>
       </c>
       <c r="C31">
-        <v>53.058594137281403</v>
+        <f t="shared" ref="C31:K31" si="5">AVERAGE(C4,C5,C6,C8,C10,C12,C13,C14,C18,C19)</f>
+        <v>75.172866456094297</v>
       </c>
       <c r="D31">
-        <v>31.065137644998099</v>
+        <f t="shared" si="5"/>
+        <v>13.626616548785545</v>
       </c>
       <c r="E31">
-        <v>38.763673617766599</v>
+        <f t="shared" si="5"/>
+        <v>64.756776921107175</v>
       </c>
       <c r="F31">
-        <v>1895</v>
+        <f t="shared" si="5"/>
+        <v>2074.8000000000002</v>
       </c>
       <c r="G31">
-        <v>1836</v>
+        <f t="shared" si="5"/>
+        <v>5947.6</v>
       </c>
       <c r="H31">
-        <v>1.0321350762527199</v>
+        <f t="shared" si="5"/>
+        <v>0.37791015201062844</v>
       </c>
       <c r="I31">
-        <v>0.48866039302305297</v>
+        <f t="shared" si="5"/>
+        <v>0.25600781601781464</v>
       </c>
       <c r="J31">
-        <v>0.51133960697694603</v>
+        <f t="shared" si="5"/>
+        <v>0.74399218398218425</v>
       </c>
       <c r="K31">
-        <v>0.95564745299513898</v>
+        <f t="shared" si="5"/>
+        <v>0.3627354283753762</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B32">
-        <v>30.483177708611201</v>
+        <f>AVERAGE(B2,B3,B7,B9,B15,B16,B17,B20)</f>
+        <v>26.290666278837001</v>
       </c>
       <c r="C32">
-        <v>69.516822291388706</v>
+        <f t="shared" ref="C32:K32" si="6">AVERAGE(C2,C3,C7,C9,C15,C16,C17,C20)</f>
+        <v>73.709333721162906</v>
       </c>
       <c r="D32">
-        <v>20.0133392618941</v>
+        <f t="shared" si="6"/>
+        <v>14.884304764971764</v>
       </c>
       <c r="E32">
-        <v>59.589447161701401</v>
+        <f t="shared" si="6"/>
+        <v>62.775336706657605</v>
       </c>
       <c r="F32">
-        <v>2056</v>
+        <f t="shared" si="6"/>
+        <v>1738.25</v>
       </c>
       <c r="G32">
-        <v>4341</v>
+        <f t="shared" si="6"/>
+        <v>3985.25</v>
       </c>
       <c r="H32">
-        <v>0.47362358903478402</v>
+        <f t="shared" si="6"/>
+        <v>0.46209893537131541</v>
       </c>
       <c r="I32">
-        <v>0.31311621682193602</v>
+        <f t="shared" si="6"/>
+        <v>0.27611525255142949</v>
       </c>
       <c r="J32">
-        <v>0.68688378317806298</v>
+        <f t="shared" si="6"/>
+        <v>0.72388474744856957</v>
       </c>
       <c r="K32">
-        <v>0.45585035560632298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>10.2499380757481</v>
-      </c>
-      <c r="C33">
-        <v>89.750061924251895</v>
-      </c>
-      <c r="D33">
-        <v>3.61637631072999</v>
-      </c>
-      <c r="E33">
-        <v>83.044550076078295</v>
-      </c>
-      <c r="F33">
-        <v>620</v>
-      </c>
-      <c r="G33">
-        <v>4936</v>
-      </c>
-      <c r="H33">
-        <v>0.125607779578606</v>
-      </c>
-      <c r="I33">
-        <v>0.107045226735831</v>
-      </c>
-      <c r="J33">
-        <v>0.89295477326416794</v>
-      </c>
-      <c r="K33">
-        <v>0.11987754580731</v>
+        <f t="shared" si="6"/>
+        <v>0.42954200451768787</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>24.3430517742039</v>
-      </c>
-      <c r="C34">
-        <v>75.6569482257961</v>
-      </c>
-      <c r="D34">
-        <v>11.491449005562201</v>
-      </c>
-      <c r="E34">
-        <v>63.385733112305097</v>
-      </c>
-      <c r="F34">
-        <v>4083</v>
-      </c>
-      <c r="G34">
-        <v>11048</v>
-      </c>
-      <c r="H34">
-        <v>0.36956915278783398</v>
-      </c>
-      <c r="I34">
-        <v>0.256636942831101</v>
-      </c>
-      <c r="J34">
-        <v>0.74336305716889794</v>
-      </c>
-      <c r="K34">
-        <v>0.34523768750158801</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>69.852185089974299</v>
-      </c>
-      <c r="C35">
-        <v>30.147814910025701</v>
-      </c>
-      <c r="D35">
-        <v>53.874403231729701</v>
-      </c>
-      <c r="E35">
-        <v>17.183253764230599</v>
-      </c>
-      <c r="F35">
-        <v>3172</v>
-      </c>
-      <c r="G35">
-        <v>1337</v>
-      </c>
-      <c r="H35">
-        <v>2.3724756918474101</v>
-      </c>
-      <c r="I35">
-        <v>0.70100188796927698</v>
-      </c>
-      <c r="J35">
-        <v>0.29899811203072202</v>
-      </c>
-      <c r="K35">
-        <v>2.3445027234728699</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>21.856241926905199</v>
+        <v>24.858623646826299</v>
       </c>
       <c r="C36">
-        <v>78.143758073094702</v>
+        <v>75.141376353173598</v>
       </c>
       <c r="D36">
-        <v>9.1051845097890194</v>
+        <v>13.8020606768664</v>
       </c>
       <c r="E36">
-        <v>65.550996631461601</v>
+        <v>63.8871972060304</v>
       </c>
       <c r="F36">
-        <v>739</v>
+        <v>1284</v>
       </c>
       <c r="G36">
-        <v>2487</v>
+        <v>3106</v>
       </c>
       <c r="H36">
-        <v>0.29714515480498499</v>
+        <v>0.41339343206696699</v>
       </c>
       <c r="I36">
-        <v>0.22381933734686299</v>
+        <v>0.27053457609290099</v>
       </c>
       <c r="J36">
-        <v>0.77618066265313601</v>
+        <v>0.72946542390709801</v>
       </c>
       <c r="K36">
-        <v>0.28835984728324099</v>
+        <v>0.370866894065915</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>20.498700298449901</v>
+        <v>37.032625079010003</v>
       </c>
       <c r="C37">
-        <v>79.501299701549996</v>
+        <v>62.967374920989897</v>
       </c>
       <c r="D37">
-        <v>9.86617887744295</v>
+        <v>21.847295829889301</v>
       </c>
       <c r="E37">
-        <v>70.940598825454899</v>
+        <v>48.999205847555103</v>
       </c>
       <c r="F37">
-        <v>1165</v>
+        <v>3174</v>
       </c>
       <c r="G37">
-        <v>3730</v>
+        <v>4765</v>
       </c>
       <c r="H37">
-        <v>0.312332439678284</v>
+        <v>0.66610703043022002</v>
       </c>
       <c r="I37">
-        <v>0.22149248004179001</v>
+        <v>0.38506235703631497</v>
       </c>
       <c r="J37">
-        <v>0.77850751995820899</v>
+        <v>0.61493764296368503</v>
       </c>
       <c r="K37">
-        <v>0.284509107957852</v>
+        <v>0.62618114444988404</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>49.868059812884802</v>
+        <v>34.230793182903199</v>
       </c>
       <c r="C38">
-        <v>50.131940187115099</v>
+        <v>65.769206817096702</v>
       </c>
       <c r="D38">
-        <v>35.314657355332201</v>
+        <v>21.759076661200201</v>
       </c>
       <c r="E38">
-        <v>36.576751872484401</v>
+        <v>53.044236397982203</v>
       </c>
       <c r="F38">
-        <v>3680</v>
+        <v>957</v>
       </c>
       <c r="G38">
-        <v>3762</v>
+        <v>1821</v>
       </c>
       <c r="H38">
-        <v>0.97820308346624096</v>
+        <v>0.52553542009884602</v>
       </c>
       <c r="I38">
-        <v>0.49658566321384601</v>
+        <v>0.343400186216892</v>
       </c>
       <c r="J38">
-        <v>0.50341433678615299</v>
+        <v>0.65659981378310694</v>
       </c>
       <c r="K38">
-        <v>0.98643528188747598</v>
+        <v>0.52299769053898304</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B39">
-        <v>20.7674127027433</v>
+        <v>44.0570963083644</v>
       </c>
       <c r="C39">
-        <v>79.2325872972567</v>
+        <v>55.9429036916355</v>
       </c>
       <c r="D39">
-        <v>9.3929426479018296</v>
+        <v>27.528973969711501</v>
       </c>
       <c r="E39">
-        <v>67.028904427475297</v>
+        <v>40.214573999333503</v>
       </c>
       <c r="F39">
-        <v>3090</v>
+        <v>3197</v>
       </c>
       <c r="G39">
-        <v>8091</v>
+        <v>3895</v>
       </c>
       <c r="H39">
-        <v>0.38190582128290601</v>
+        <v>0.82079589216944804</v>
       </c>
       <c r="I39">
-        <v>0.242017906014387</v>
+        <v>0.44568029259653102</v>
       </c>
       <c r="J39">
-        <v>0.757982093985612</v>
+        <v>0.55431970740346803</v>
       </c>
       <c r="K39">
-        <v>0.31929237898195101</v>
+        <v>0.80401307520560195</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>32.667972027971999</v>
+        <v>27.951889120380599</v>
       </c>
       <c r="C40">
-        <v>67.332027972027902</v>
+        <v>72.048110879619301</v>
       </c>
       <c r="D40">
-        <v>18.956643356643301</v>
+        <v>13.574774295550901</v>
       </c>
       <c r="E40">
-        <v>52.0911888111888</v>
+        <v>60.6158665425476</v>
       </c>
       <c r="F40">
-        <v>3117</v>
+        <v>689</v>
       </c>
       <c r="G40">
-        <v>5627</v>
+        <v>1954</v>
       </c>
       <c r="H40">
-        <v>0.55393637817664798</v>
+        <v>0.35261003070624303</v>
       </c>
       <c r="I40">
-        <v>0.341576365171882</v>
+        <v>0.270103751315107</v>
       </c>
       <c r="J40">
-        <v>0.65842363482811705</v>
+        <v>0.729896248684892</v>
       </c>
       <c r="K40">
-        <v>0.518779015672866</v>
+        <v>0.37005773327616498</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B41">
-        <v>57.195158515993597</v>
+        <v>18.686857090374701</v>
       </c>
       <c r="C41">
-        <v>42.804841484006303</v>
+        <v>81.313142909625199</v>
       </c>
       <c r="D41">
-        <v>42.864807713550697</v>
+        <v>9.9421381337251997</v>
       </c>
       <c r="E41">
-        <v>28.198330413924701</v>
+        <v>72.560961609110905</v>
       </c>
       <c r="F41">
-        <v>3370</v>
+        <v>2014</v>
       </c>
       <c r="G41">
-        <v>2388</v>
+        <v>7821</v>
       </c>
       <c r="H41">
-        <v>1.4112227805695099</v>
+        <v>0.25751182713207998</v>
       </c>
       <c r="I41">
-        <v>0.57861212463971101</v>
+        <v>0.19582371097297099</v>
       </c>
       <c r="J41">
-        <v>0.42138787536028799</v>
+        <v>0.80417628902702798</v>
       </c>
       <c r="K41">
-        <v>1.3731105199574001</v>
+        <v>0.24350843670098499</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>59.4759170009523</v>
+        <v>1.70753723484278</v>
       </c>
       <c r="C42">
-        <v>40.5240829990476</v>
+        <v>98.292462765157197</v>
       </c>
       <c r="D42">
-        <v>44.818331361288202</v>
+        <v>0.78982999849556201</v>
       </c>
       <c r="E42">
-        <v>25.755389454849698</v>
+        <v>97.028734767564302</v>
       </c>
       <c r="F42">
-        <v>3786</v>
+        <v>51</v>
       </c>
       <c r="G42">
-        <v>3100</v>
+        <v>2221</v>
       </c>
       <c r="H42">
-        <v>1.22129032258064</v>
+        <v>2.2962629446195398E-2</v>
       </c>
       <c r="I42">
-        <v>0.57228519058129301</v>
+        <v>1.9761277723509701E-2</v>
       </c>
       <c r="J42">
-        <v>0.42771480941870599</v>
+        <v>0.98023872227649</v>
       </c>
       <c r="K42">
-        <v>1.3380064893218599</v>
+        <v>2.0159658330591499E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>56.595162026471897</v>
+        <v>46.941405862718497</v>
       </c>
       <c r="C43">
-        <v>43.404837973527997</v>
+        <v>53.058594137281403</v>
       </c>
       <c r="D43">
-        <v>43.742076170191098</v>
+        <v>31.065137644998099</v>
       </c>
       <c r="E43">
-        <v>31.9336680359044</v>
+        <v>38.763673617766599</v>
       </c>
       <c r="F43">
-        <v>2846</v>
+        <v>1895</v>
       </c>
       <c r="G43">
-        <v>2176</v>
+        <v>1836</v>
       </c>
       <c r="H43">
-        <v>1.3079044117647001</v>
+        <v>1.0321350762527199</v>
       </c>
       <c r="I43">
-        <v>0.56632905585119597</v>
+        <v>0.48866039302305297</v>
       </c>
       <c r="J43">
-        <v>0.43367094414880297</v>
+        <v>0.51133960697694603</v>
       </c>
       <c r="K43">
-        <v>1.30589577995079</v>
+        <v>0.95564745299513898</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B44">
-        <v>45.086794393725</v>
+        <v>30.483177708611201</v>
       </c>
       <c r="C44">
-        <v>54.9132056062749</v>
+        <v>69.516822291388706</v>
       </c>
       <c r="D44">
-        <v>23.2107496463932</v>
+        <v>20.0133392618941</v>
       </c>
       <c r="E44">
-        <v>38.2962581972482</v>
+        <v>59.589447161701401</v>
       </c>
       <c r="F44">
-        <v>580</v>
+        <v>2056</v>
       </c>
       <c r="G44">
-        <v>1017</v>
+        <v>4341</v>
       </c>
       <c r="H44">
-        <v>0.57030481809242795</v>
+        <v>0.47362358903478402</v>
       </c>
       <c r="I44">
-        <v>0.40702445412266403</v>
+        <v>0.31311621682193602</v>
       </c>
       <c r="J44">
-        <v>0.59297554587733503</v>
+        <v>0.68688378317806298</v>
       </c>
       <c r="K44">
-        <v>0.68641018496041295</v>
+        <v>0.45585035560632298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>10.2499380757481</v>
+      </c>
+      <c r="C45">
+        <v>89.750061924251895</v>
+      </c>
+      <c r="D45">
+        <v>3.61637631072999</v>
+      </c>
+      <c r="E45">
+        <v>83.044550076078295</v>
+      </c>
+      <c r="F45">
+        <v>620</v>
+      </c>
+      <c r="G45">
+        <v>4936</v>
+      </c>
+      <c r="H45">
+        <v>0.125607779578606</v>
+      </c>
+      <c r="I45">
+        <v>0.107045226735831</v>
+      </c>
+      <c r="J45">
+        <v>0.89295477326416794</v>
+      </c>
+      <c r="K45">
+        <v>0.11987754580731</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>24.3430517742039</v>
+      </c>
+      <c r="C46">
+        <v>75.6569482257961</v>
+      </c>
+      <c r="D46">
+        <v>11.491449005562201</v>
+      </c>
+      <c r="E46">
+        <v>63.385733112305097</v>
+      </c>
+      <c r="F46">
+        <v>4083</v>
+      </c>
+      <c r="G46">
+        <v>11048</v>
+      </c>
+      <c r="H46">
+        <v>0.36956915278783398</v>
+      </c>
+      <c r="I46">
+        <v>0.256636942831101</v>
+      </c>
+      <c r="J46">
+        <v>0.74336305716889794</v>
+      </c>
+      <c r="K46">
+        <v>0.34523768750158801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>69.852185089974299</v>
+      </c>
+      <c r="C47">
+        <v>30.147814910025701</v>
+      </c>
+      <c r="D47">
+        <v>53.874403231729701</v>
+      </c>
+      <c r="E47">
+        <v>17.183253764230599</v>
+      </c>
+      <c r="F47">
+        <v>3172</v>
+      </c>
+      <c r="G47">
+        <v>1337</v>
+      </c>
+      <c r="H47">
+        <v>2.3724756918474101</v>
+      </c>
+      <c r="I47">
+        <v>0.70100188796927698</v>
+      </c>
+      <c r="J47">
+        <v>0.29899811203072202</v>
+      </c>
+      <c r="K47">
+        <v>2.3445027234728699</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>11.8837416922924</v>
+        <v>21.856241926905199</v>
       </c>
       <c r="C48">
-        <v>88.116258307707497</v>
+        <v>78.143758073094702</v>
       </c>
       <c r="D48">
-        <v>3.4090533346559502</v>
+        <v>9.1051845097890194</v>
       </c>
       <c r="E48">
-        <v>81.893330688093101</v>
+        <v>65.550996631461601</v>
       </c>
       <c r="F48">
-        <v>104</v>
+        <v>739</v>
       </c>
       <c r="G48">
-        <v>1148</v>
+        <v>2487</v>
       </c>
       <c r="H48">
-        <v>9.0592334494773497E-2</v>
+        <v>0.29714515480498499</v>
       </c>
       <c r="I48">
-        <v>0.10095225478734</v>
+        <v>0.22381933734686299</v>
       </c>
       <c r="J48">
-        <v>0.89904774521265896</v>
+        <v>0.77618066265313601</v>
       </c>
       <c r="K48">
-        <v>0.11228797950376</v>
+        <v>0.28835984728324099</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>16.111819585207002</v>
+        <v>20.498700298449901</v>
       </c>
       <c r="C49">
-        <v>83.888180414792899</v>
+        <v>79.501299701549996</v>
       </c>
       <c r="D49">
-        <v>5.6883012282703502</v>
+        <v>9.86617887744295</v>
       </c>
       <c r="E49">
-        <v>73.897577018591804</v>
+        <v>70.940598825454899</v>
       </c>
       <c r="F49">
-        <v>237</v>
+        <v>1165</v>
       </c>
       <c r="G49">
-        <v>1087</v>
+        <v>3730</v>
       </c>
       <c r="H49">
-        <v>0.21803127874885</v>
+        <v>0.312332439678284</v>
       </c>
       <c r="I49">
-        <v>0.170060608500053</v>
+        <v>0.22149248004179001</v>
       </c>
       <c r="J49">
-        <v>0.829939391499946</v>
+        <v>0.77850751995820899</v>
       </c>
       <c r="K49">
-        <v>0.20490726219501801</v>
+        <v>0.284509107957852</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>20.324728040266201</v>
+        <v>49.868059812884802</v>
       </c>
       <c r="C50">
-        <v>79.675271959733706</v>
+        <v>50.131940187115099</v>
       </c>
       <c r="D50">
-        <v>10.6153596363045</v>
+        <v>35.314657355332201</v>
       </c>
       <c r="E50">
-        <v>66.017210586134098</v>
+        <v>36.576751872484401</v>
       </c>
       <c r="F50">
-        <v>352</v>
+        <v>3680</v>
       </c>
       <c r="G50">
-        <v>1266</v>
+        <v>3762</v>
       </c>
       <c r="H50">
-        <v>0.278041074249605</v>
+        <v>0.97820308346624096</v>
       </c>
       <c r="I50">
-        <v>0.210399907197623</v>
+        <v>0.49658566321384601</v>
       </c>
       <c r="J50">
-        <v>0.78960009280237597</v>
+        <v>0.50341433678615299</v>
       </c>
       <c r="K50">
-        <v>0.26646388357287398</v>
+        <v>0.98643528188747598</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>34.437353582680302</v>
+        <v>20.7674127027433</v>
       </c>
       <c r="C51">
-        <v>65.562646417319598</v>
+        <v>79.2325872972567</v>
       </c>
       <c r="D51">
-        <v>16.746102269973299</v>
+        <v>9.3929426479018296</v>
       </c>
       <c r="E51">
-        <v>51.789320623636797</v>
+        <v>67.028904427475297</v>
       </c>
       <c r="F51">
-        <v>257</v>
+        <v>3090</v>
       </c>
       <c r="G51">
-        <v>425</v>
+        <v>8091</v>
       </c>
       <c r="H51">
-        <v>0.60470588235294098</v>
+        <v>0.38190582128290601</v>
       </c>
       <c r="I51">
-        <v>0.36060319020079101</v>
+        <v>0.242017906014387</v>
       </c>
       <c r="J51">
-        <v>0.63939680979920799</v>
+        <v>0.757982093985612</v>
       </c>
       <c r="K51">
-        <v>0.56397402156891097</v>
+        <v>0.31929237898195101</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B52">
-        <v>17.8063359234907</v>
+        <v>32.667972027971999</v>
       </c>
       <c r="C52">
-        <v>82.193664076509194</v>
+        <v>67.332027972027902</v>
       </c>
       <c r="D52">
-        <v>5.65152420800956</v>
+        <v>18.956643356643301</v>
       </c>
       <c r="E52">
-        <v>74.103407053197799</v>
+        <v>52.0911888111888</v>
       </c>
       <c r="F52">
-        <v>261</v>
+        <v>3117</v>
       </c>
       <c r="G52">
-        <v>1364</v>
+        <v>5627</v>
       </c>
       <c r="H52">
-        <v>0.19134897360703801</v>
+        <v>0.55393637817664798</v>
       </c>
       <c r="I52">
-        <v>0.169339371925145</v>
+        <v>0.341576365171882</v>
       </c>
       <c r="J52">
-        <v>0.83066062807485397</v>
+        <v>0.65842363482811705</v>
       </c>
       <c r="K52">
-        <v>0.20386107900359701</v>
+        <v>0.518779015672866</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>14.7448325720482</v>
+        <v>57.195158515993597</v>
       </c>
       <c r="C53">
-        <v>85.255167427951704</v>
+        <v>42.804841484006303</v>
       </c>
       <c r="D53">
-        <v>7.4660707830830297</v>
+        <v>42.864807713550697</v>
       </c>
       <c r="E53">
-        <v>74.568696395123396</v>
+        <v>28.198330413924701</v>
       </c>
       <c r="F53">
-        <v>252</v>
+        <v>3370</v>
       </c>
       <c r="G53">
-        <v>1009</v>
+        <v>2388</v>
       </c>
       <c r="H53">
-        <v>0.24975222993062399</v>
+        <v>1.4112227805695099</v>
       </c>
       <c r="I53">
-        <v>0.173644860719083</v>
+        <v>0.57861212463971101</v>
       </c>
       <c r="J53">
-        <v>0.82635513928091597</v>
+        <v>0.42138787536028799</v>
       </c>
       <c r="K53">
-        <v>0.210133455296456</v>
+        <v>1.3731105199574001</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>13.161397670549</v>
+        <v>59.4759170009523</v>
       </c>
       <c r="C54">
-        <v>86.838602329450893</v>
+        <v>40.5240829990476</v>
       </c>
       <c r="D54">
-        <v>3.9134775374376001</v>
+        <v>44.818331361288202</v>
       </c>
       <c r="E54">
-        <v>76.405990016638896</v>
+        <v>25.755389454849698</v>
       </c>
       <c r="F54">
-        <v>199</v>
+        <v>3786</v>
       </c>
       <c r="G54">
-        <v>1193</v>
+        <v>3100</v>
       </c>
       <c r="H54">
-        <v>0.16680637049455099</v>
+        <v>1.22129032258064</v>
       </c>
       <c r="I54">
-        <v>0.137286873410216</v>
+        <v>0.57228519058129301</v>
       </c>
       <c r="J54">
-        <v>0.86271312658978305</v>
+        <v>0.42771480941870599</v>
       </c>
       <c r="K54">
-        <v>0.15913386406081201</v>
+        <v>1.3380064893218599</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B55">
-        <v>23.143117364404301</v>
+        <v>56.595162026471897</v>
       </c>
       <c r="C55">
-        <v>76.856882635595596</v>
+        <v>43.404837973527997</v>
       </c>
       <c r="D55">
-        <v>10.5461511887189</v>
+        <v>43.742076170191098</v>
       </c>
       <c r="E55">
-        <v>66.018655192990096</v>
+        <v>31.9336680359044</v>
       </c>
       <c r="F55">
-        <v>417</v>
+        <v>2846</v>
       </c>
       <c r="G55">
-        <v>1168</v>
+        <v>2176</v>
       </c>
       <c r="H55">
-        <v>0.35702054794520499</v>
+        <v>1.3079044117647001</v>
       </c>
       <c r="I55">
-        <v>0.24726132814694299</v>
+        <v>0.56632905585119597</v>
       </c>
       <c r="J55">
-        <v>0.75273867185305599</v>
+        <v>0.43367094414880297</v>
       </c>
       <c r="K55">
-        <v>0.32848229723370798</v>
+        <v>1.30589577995079</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B56">
-        <v>16.5618248824501</v>
+        <v>45.086794393725</v>
       </c>
       <c r="C56">
-        <v>83.438175117549804</v>
+        <v>54.9132056062749</v>
       </c>
       <c r="D56">
-        <v>7.2245520396492502</v>
+        <v>23.2107496463932</v>
       </c>
       <c r="E56">
-        <v>74.869742025670305</v>
+        <v>38.2962581972482</v>
       </c>
       <c r="F56">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="G56">
-        <v>1237</v>
+        <v>1017</v>
       </c>
       <c r="H56">
-        <v>0.19401778496362099</v>
+        <v>0.57030481809242795</v>
       </c>
       <c r="I56">
-        <v>0.16405489286180999</v>
+        <v>0.40702445412266403</v>
       </c>
       <c r="J56">
-        <v>0.83594510713818904</v>
+        <v>0.59297554587733503</v>
       </c>
       <c r="K56">
-        <v>0.19625079620771099</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>19.0412143337496</v>
-      </c>
-      <c r="C57">
-        <v>80.958785666250293</v>
-      </c>
-      <c r="D57">
-        <v>8.7552438594805704</v>
-      </c>
-      <c r="E57">
-        <v>70.403817209466098</v>
-      </c>
-      <c r="F57">
-        <v>356</v>
-      </c>
-      <c r="G57">
-        <v>1316</v>
-      </c>
-      <c r="H57">
-        <v>0.27051671732522797</v>
-      </c>
-      <c r="I57">
-        <v>0.20166540181228801</v>
-      </c>
-      <c r="J57">
-        <v>0.79833459818771102</v>
-      </c>
-      <c r="K57">
-        <v>0.25260761874793702</v>
+        <v>0.68641018496041295</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>22.505014178020598</v>
-      </c>
-      <c r="C58">
-        <v>77.494985821979299</v>
-      </c>
-      <c r="D58">
-        <v>10.6127671346566</v>
-      </c>
-      <c r="E58">
-        <v>68.009544228508204</v>
-      </c>
-      <c r="F58">
-        <v>362</v>
-      </c>
-      <c r="G58">
-        <v>1326</v>
-      </c>
-      <c r="H58">
-        <v>0.27300150829562497</v>
-      </c>
-      <c r="I58">
-        <v>0.219752559041761</v>
-      </c>
-      <c r="J58">
-        <v>0.78024744095823795</v>
-      </c>
-      <c r="K58">
-        <v>0.28164470334164599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>21.418561691827499</v>
-      </c>
-      <c r="C59">
-        <v>78.581438308172494</v>
-      </c>
-      <c r="D59">
-        <v>10.7841263774762</v>
-      </c>
-      <c r="E59">
-        <v>69.545830944646099</v>
-      </c>
-      <c r="F59">
-        <v>430</v>
-      </c>
-      <c r="G59">
-        <v>1398</v>
-      </c>
-      <c r="H59">
-        <v>0.30758226037195902</v>
-      </c>
-      <c r="I59">
-        <v>0.224707688109028</v>
-      </c>
-      <c r="J59">
-        <v>0.77529231189097103</v>
-      </c>
-      <c r="K59">
-        <v>0.28983608461298399</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B60">
-        <v>4.6134527189342602</v>
+        <v>11.8837416922924</v>
       </c>
       <c r="C60">
-        <v>95.386547281065702</v>
+        <v>88.116258307707497</v>
       </c>
       <c r="D60">
-        <v>1.10832059401616</v>
+        <v>3.4090533346559502</v>
       </c>
       <c r="E60">
-        <v>88.660187813933106</v>
+        <v>81.893330688093101</v>
       </c>
       <c r="F60">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="G60">
-        <v>678</v>
+        <v>1148</v>
       </c>
       <c r="H60">
-        <v>8.2595870206489605E-2</v>
+        <v>9.0592334494773497E-2</v>
       </c>
       <c r="I60">
-        <v>6.1214402559248898E-2</v>
+        <v>0.10095225478734</v>
       </c>
       <c r="J60">
-        <v>0.93878559744075096</v>
+        <v>0.89904774521265896</v>
       </c>
       <c r="K60">
-        <v>6.5205945560016298E-2</v>
+        <v>0.11228797950376</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B61">
-        <v>48.803854557678299</v>
+        <v>16.111819585207002</v>
       </c>
       <c r="C61">
-        <v>51.196145442321601</v>
+        <v>83.888180414792899</v>
       </c>
       <c r="D61">
-        <v>36.528657067622802</v>
+        <v>5.6883012282703502</v>
       </c>
       <c r="E61">
-        <v>39.8341643789568</v>
+        <v>73.897577018591804</v>
       </c>
       <c r="F61">
-        <v>459</v>
+        <v>237</v>
       </c>
       <c r="G61">
-        <v>379</v>
+        <v>1087</v>
       </c>
       <c r="H61">
-        <v>1.2110817941952501</v>
+        <v>0.21803127874885</v>
       </c>
       <c r="I61">
-        <v>0.51788562123707804</v>
+        <v>0.170060608500053</v>
       </c>
       <c r="J61">
-        <v>0.48211437876292101</v>
+        <v>0.829939391499946</v>
       </c>
       <c r="K61">
-        <v>1.0741965891287899</v>
+        <v>0.20490726219501801</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B62">
-        <v>2.4762370986823301</v>
+        <v>20.324728040266201</v>
       </c>
       <c r="C62">
-        <v>97.523762901317596</v>
+        <v>79.675271959733706</v>
       </c>
       <c r="D62">
-        <v>0.34675478317627301</v>
+        <v>10.6153596363045</v>
       </c>
       <c r="E62">
-        <v>94.341777832170607</v>
+        <v>66.017210586134098</v>
       </c>
       <c r="F62">
-        <v>21</v>
+        <v>352</v>
       </c>
       <c r="G62">
-        <v>843</v>
+        <v>1266</v>
       </c>
       <c r="H62">
-        <v>2.4911032028469698E-2</v>
+        <v>0.278041074249605</v>
       </c>
       <c r="I62">
-        <v>2.45339632711894E-2</v>
+        <v>0.210399907197623</v>
       </c>
       <c r="J62">
-        <v>0.97546603672881005</v>
+        <v>0.78960009280237597</v>
       </c>
       <c r="K62">
-        <v>2.5151017408523099E-2</v>
+        <v>0.26646388357287398</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B63">
-        <v>45.800291947764997</v>
+        <v>34.437353582680302</v>
       </c>
       <c r="C63">
-        <v>54.199708052234897</v>
+        <v>65.562646417319598</v>
       </c>
       <c r="D63">
-        <v>29.956207835246701</v>
+        <v>16.746102269973299</v>
       </c>
       <c r="E63">
-        <v>36.292263384226899</v>
+        <v>51.789320623636797</v>
       </c>
       <c r="F63">
-        <v>757</v>
+        <v>257</v>
       </c>
       <c r="G63">
-        <v>807</v>
+        <v>425</v>
       </c>
       <c r="H63">
-        <v>0.93804213135068104</v>
+        <v>0.60470588235294098</v>
       </c>
       <c r="I63">
-        <v>0.471009132373096</v>
+        <v>0.36060319020079101</v>
       </c>
       <c r="J63">
-        <v>0.52899086762690295</v>
+        <v>0.63939680979920799</v>
       </c>
       <c r="K63">
-        <v>0.89039180295509002</v>
+        <v>0.56397402156891097</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>16.893798887186499</v>
+        <v>17.8063359234907</v>
       </c>
       <c r="C64">
-        <v>83.106201112813395</v>
+        <v>82.193664076509194</v>
       </c>
       <c r="D64">
-        <v>7.6364809289573401</v>
+        <v>5.65152420800956</v>
       </c>
       <c r="E64">
-        <v>75.195548746068795</v>
+        <v>74.103407053197799</v>
       </c>
       <c r="F64">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="G64">
-        <v>306</v>
+        <v>1364</v>
       </c>
       <c r="H64">
-        <v>0.20588235294117599</v>
+        <v>0.19134897360703801</v>
       </c>
       <c r="I64">
-        <v>0.169834848094469</v>
+        <v>0.169339371925145</v>
       </c>
       <c r="J64">
-        <v>0.83016515190552997</v>
+        <v>0.83066062807485397</v>
       </c>
       <c r="K64">
-        <v>0.20457959203013501</v>
+        <v>0.20386107900359701</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B65">
-        <v>6.4883096095581001</v>
+        <v>14.7448325720482</v>
       </c>
       <c r="C65">
-        <v>93.511690390441899</v>
+        <v>85.255167427951704</v>
       </c>
       <c r="D65">
-        <v>1.06328245583947</v>
+        <v>7.4660707830830297</v>
       </c>
       <c r="E65">
-        <v>89.338592579889095</v>
+        <v>74.568696395123396</v>
       </c>
       <c r="F65">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="G65">
-        <v>539</v>
+        <v>1009</v>
       </c>
       <c r="H65">
-        <v>8.7198515769944293E-2</v>
+        <v>0.24975222993062399</v>
       </c>
       <c r="I65">
-        <v>7.2543937126288802E-2</v>
+        <v>0.173644860719083</v>
       </c>
       <c r="J65">
-        <v>0.92745606287371096</v>
+        <v>0.82635513928091597</v>
       </c>
       <c r="K65">
-        <v>7.8218192785879603E-2</v>
+        <v>0.210133455296456</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B66">
-        <v>20.345510563380198</v>
+        <v>13.161397670549</v>
       </c>
       <c r="C66">
-        <v>79.654489436619698</v>
+        <v>86.838602329450893</v>
       </c>
       <c r="D66">
-        <v>4.7755281690140796</v>
+        <v>3.9134775374376001</v>
       </c>
       <c r="E66">
-        <v>65.525968309859095</v>
+        <v>76.405990016638896</v>
       </c>
       <c r="F66">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="G66">
-        <v>508</v>
+        <v>1193</v>
       </c>
       <c r="H66">
-        <v>0.27559055118110198</v>
+        <v>0.16680637049455099</v>
       </c>
       <c r="I66">
-        <v>0.20975224417492599</v>
+        <v>0.137286873410216</v>
       </c>
       <c r="J66">
-        <v>0.79024775582507301</v>
+        <v>0.86271312658978305</v>
       </c>
       <c r="K66">
-        <v>0.26542592829755002</v>
+        <v>0.15913386406081201</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B67">
-        <v>16.422713588705399</v>
+        <v>23.143117364404301</v>
       </c>
       <c r="C67">
-        <v>83.577286411294494</v>
+        <v>76.856882635595596</v>
       </c>
       <c r="D67">
-        <v>7.7130696563894903</v>
+        <v>10.5461511887189</v>
       </c>
       <c r="E67">
-        <v>77.653205993286903</v>
+        <v>66.018655192990096</v>
       </c>
       <c r="F67">
-        <v>199</v>
+        <v>417</v>
       </c>
       <c r="G67">
-        <v>1101</v>
+        <v>1168</v>
       </c>
       <c r="H67">
-        <v>0.18074477747502199</v>
+        <v>0.35702054794520499</v>
       </c>
       <c r="I67">
-        <v>0.158652029481989</v>
+        <v>0.24726132814694299</v>
       </c>
       <c r="J67">
-        <v>0.84134797051801002</v>
+        <v>0.75273867185305599</v>
       </c>
       <c r="K67">
-        <v>0.18856886216093</v>
+        <v>0.32848229723370798</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68">
+        <v>16.5618248824501</v>
+      </c>
+      <c r="C68">
+        <v>83.438175117549804</v>
+      </c>
+      <c r="D68">
+        <v>7.2245520396492502</v>
+      </c>
+      <c r="E68">
+        <v>74.869742025670305</v>
+      </c>
+      <c r="F68">
+        <v>240</v>
+      </c>
+      <c r="G68">
+        <v>1237</v>
+      </c>
+      <c r="H68">
+        <v>0.19401778496362099</v>
+      </c>
+      <c r="I68">
+        <v>0.16405489286180999</v>
+      </c>
+      <c r="J68">
+        <v>0.83594510713818904</v>
+      </c>
+      <c r="K68">
+        <v>0.19625079620771099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69">
+        <v>19.0412143337496</v>
+      </c>
+      <c r="C69">
+        <v>80.958785666250293</v>
+      </c>
+      <c r="D69">
+        <v>8.7552438594805704</v>
+      </c>
+      <c r="E69">
+        <v>70.403817209466098</v>
+      </c>
+      <c r="F69">
+        <v>356</v>
+      </c>
+      <c r="G69">
+        <v>1316</v>
+      </c>
+      <c r="H69">
+        <v>0.27051671732522797</v>
+      </c>
+      <c r="I69">
+        <v>0.20166540181228801</v>
+      </c>
+      <c r="J69">
+        <v>0.79833459818771102</v>
+      </c>
+      <c r="K69">
+        <v>0.25260761874793702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70">
+        <v>22.505014178020598</v>
+      </c>
+      <c r="C70">
+        <v>77.494985821979299</v>
+      </c>
+      <c r="D70">
+        <v>10.6127671346566</v>
+      </c>
+      <c r="E70">
+        <v>68.009544228508204</v>
+      </c>
+      <c r="F70">
+        <v>362</v>
+      </c>
+      <c r="G70">
+        <v>1326</v>
+      </c>
+      <c r="H70">
+        <v>0.27300150829562497</v>
+      </c>
+      <c r="I70">
+        <v>0.219752559041761</v>
+      </c>
+      <c r="J70">
+        <v>0.78024744095823795</v>
+      </c>
+      <c r="K70">
+        <v>0.28164470334164599</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <v>21.418561691827499</v>
+      </c>
+      <c r="C71">
+        <v>78.581438308172494</v>
+      </c>
+      <c r="D71">
+        <v>10.7841263774762</v>
+      </c>
+      <c r="E71">
+        <v>69.545830944646099</v>
+      </c>
+      <c r="F71">
+        <v>430</v>
+      </c>
+      <c r="G71">
+        <v>1398</v>
+      </c>
+      <c r="H71">
+        <v>0.30758226037195902</v>
+      </c>
+      <c r="I71">
+        <v>0.224707688109028</v>
+      </c>
+      <c r="J71">
+        <v>0.77529231189097103</v>
+      </c>
+      <c r="K71">
+        <v>0.28983608461298399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72">
+        <v>4.6134527189342602</v>
+      </c>
+      <c r="C72">
+        <v>95.386547281065702</v>
+      </c>
+      <c r="D72">
+        <v>1.10832059401616</v>
+      </c>
+      <c r="E72">
+        <v>88.660187813933106</v>
+      </c>
+      <c r="F72">
+        <v>56</v>
+      </c>
+      <c r="G72">
+        <v>678</v>
+      </c>
+      <c r="H72">
+        <v>8.2595870206489605E-2</v>
+      </c>
+      <c r="I72">
+        <v>6.1214402559248898E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.93878559744075096</v>
+      </c>
+      <c r="K72">
+        <v>6.5205945560016298E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73">
+        <v>48.803854557678299</v>
+      </c>
+      <c r="C73">
+        <v>51.196145442321601</v>
+      </c>
+      <c r="D73">
+        <v>36.528657067622802</v>
+      </c>
+      <c r="E73">
+        <v>39.8341643789568</v>
+      </c>
+      <c r="F73">
+        <v>459</v>
+      </c>
+      <c r="G73">
+        <v>379</v>
+      </c>
+      <c r="H73">
+        <v>1.2110817941952501</v>
+      </c>
+      <c r="I73">
+        <v>0.51788562123707804</v>
+      </c>
+      <c r="J73">
+        <v>0.48211437876292101</v>
+      </c>
+      <c r="K73">
+        <v>1.0741965891287899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74">
+        <v>2.4762370986823301</v>
+      </c>
+      <c r="C74">
+        <v>97.523762901317596</v>
+      </c>
+      <c r="D74">
+        <v>0.34675478317627301</v>
+      </c>
+      <c r="E74">
+        <v>94.341777832170607</v>
+      </c>
+      <c r="F74">
+        <v>21</v>
+      </c>
+      <c r="G74">
+        <v>843</v>
+      </c>
+      <c r="H74">
+        <v>2.4911032028469698E-2</v>
+      </c>
+      <c r="I74">
+        <v>2.45339632711894E-2</v>
+      </c>
+      <c r="J74">
+        <v>0.97546603672881005</v>
+      </c>
+      <c r="K74">
+        <v>2.5151017408523099E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75">
+        <v>45.800291947764997</v>
+      </c>
+      <c r="C75">
+        <v>54.199708052234897</v>
+      </c>
+      <c r="D75">
+        <v>29.956207835246701</v>
+      </c>
+      <c r="E75">
+        <v>36.292263384226899</v>
+      </c>
+      <c r="F75">
+        <v>757</v>
+      </c>
+      <c r="G75">
+        <v>807</v>
+      </c>
+      <c r="H75">
+        <v>0.93804213135068104</v>
+      </c>
+      <c r="I75">
+        <v>0.471009132373096</v>
+      </c>
+      <c r="J75">
+        <v>0.52899086762690295</v>
+      </c>
+      <c r="K75">
+        <v>0.89039180295509002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76">
+        <v>16.893798887186499</v>
+      </c>
+      <c r="C76">
+        <v>83.106201112813395</v>
+      </c>
+      <c r="D76">
+        <v>7.6364809289573401</v>
+      </c>
+      <c r="E76">
+        <v>75.195548746068795</v>
+      </c>
+      <c r="F76">
+        <v>63</v>
+      </c>
+      <c r="G76">
+        <v>306</v>
+      </c>
+      <c r="H76">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="I76">
+        <v>0.169834848094469</v>
+      </c>
+      <c r="J76">
+        <v>0.83016515190552997</v>
+      </c>
+      <c r="K76">
+        <v>0.20457959203013501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77">
+        <v>6.4883096095581001</v>
+      </c>
+      <c r="C77">
+        <v>93.511690390441899</v>
+      </c>
+      <c r="D77">
+        <v>1.06328245583947</v>
+      </c>
+      <c r="E77">
+        <v>89.338592579889095</v>
+      </c>
+      <c r="F77">
+        <v>47</v>
+      </c>
+      <c r="G77">
+        <v>539</v>
+      </c>
+      <c r="H77">
+        <v>8.7198515769944293E-2</v>
+      </c>
+      <c r="I77">
+        <v>7.2543937126288802E-2</v>
+      </c>
+      <c r="J77">
+        <v>0.92745606287371096</v>
+      </c>
+      <c r="K77">
+        <v>7.8218192785879603E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78">
+        <v>20.345510563380198</v>
+      </c>
+      <c r="C78">
+        <v>79.654489436619698</v>
+      </c>
+      <c r="D78">
+        <v>4.7755281690140796</v>
+      </c>
+      <c r="E78">
+        <v>65.525968309859095</v>
+      </c>
+      <c r="F78">
+        <v>140</v>
+      </c>
+      <c r="G78">
+        <v>508</v>
+      </c>
+      <c r="H78">
+        <v>0.27559055118110198</v>
+      </c>
+      <c r="I78">
+        <v>0.20975224417492599</v>
+      </c>
+      <c r="J78">
+        <v>0.79024775582507301</v>
+      </c>
+      <c r="K78">
+        <v>0.26542592829755002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79">
+        <v>16.422713588705399</v>
+      </c>
+      <c r="C79">
+        <v>83.577286411294494</v>
+      </c>
+      <c r="D79">
+        <v>7.7130696563894903</v>
+      </c>
+      <c r="E79">
+        <v>77.653205993286903</v>
+      </c>
+      <c r="F79">
+        <v>199</v>
+      </c>
+      <c r="G79">
+        <v>1101</v>
+      </c>
+      <c r="H79">
+        <v>0.18074477747502199</v>
+      </c>
+      <c r="I79">
+        <v>0.158652029481989</v>
+      </c>
+      <c r="J79">
+        <v>0.84134797051801002</v>
+      </c>
+      <c r="K79">
+        <v>0.18856886216093</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>73</v>
       </c>
-      <c r="B68">
+      <c r="B80">
         <v>12.117165985145601</v>
       </c>
-      <c r="C68">
+      <c r="C80">
         <v>87.882834014854296</v>
       </c>
-      <c r="D68">
+      <c r="D80">
         <v>6.4090795293332201</v>
       </c>
-      <c r="E68">
+      <c r="E80">
         <v>79.3958107318701</v>
       </c>
-      <c r="F68">
+      <c r="F80">
         <v>107</v>
       </c>
-      <c r="G68">
+      <c r="G80">
         <v>718</v>
       </c>
-      <c r="H68">
+      <c r="H80">
         <v>0.14902506963788301</v>
       </c>
-      <c r="I68">
+      <c r="I80">
         <v>0.12543431477421199</v>
       </c>
-      <c r="J68">
+      <c r="J80">
         <v>0.87456568522578704</v>
       </c>
-      <c r="K68">
+      <c r="K80">
         <v>0.14342469284263001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>9.8430860220632201</v>
+      </c>
+      <c r="C84">
+        <v>90.156913977936696</v>
+      </c>
+      <c r="D84">
+        <v>2.1671768218198602</v>
+      </c>
+      <c r="E84">
+        <v>82.938022044362199</v>
+      </c>
+      <c r="F84">
+        <v>533</v>
+      </c>
+      <c r="G84">
+        <v>6452</v>
+      </c>
+      <c r="H84">
+        <v>8.2610043397396096E-2</v>
+      </c>
+      <c r="I84">
+        <v>8.7368615507596004E-2</v>
+      </c>
+      <c r="J84">
+        <v>0.912631384492403</v>
+      </c>
+      <c r="K84">
+        <v>9.5732644079722803E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/results/Faulkner-Fem-Percent-Spreadsheet.xlsx
+++ b/src/results/Faulkner-Fem-Percent-Spreadsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="faulkner-fem-percent-no-names" sheetId="1" r:id="rId1"/>
@@ -1060,11 +1060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492947248"/>
-        <c:axId val="492943328"/>
+        <c:axId val="363146416"/>
+        <c:axId val="363144064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="492947248"/>
+        <c:axId val="363146416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492943328"/>
+        <c:crossAx val="363144064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1115,7 +1115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492943328"/>
+        <c:axId val="363144064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492947248"/>
+        <c:crossAx val="363146416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,11 +1486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497836560"/>
-        <c:axId val="497838128"/>
+        <c:axId val="363147984"/>
+        <c:axId val="335333064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="497836560"/>
+        <c:axId val="363147984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497838128"/>
+        <c:crossAx val="335333064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497838128"/>
+        <c:axId val="335333064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497836560"/>
+        <c:crossAx val="363147984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,6 +1656,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fem% (strict)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1887,11 +1912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554680680"/>
-        <c:axId val="554682248"/>
+        <c:axId val="335336592"/>
+        <c:axId val="335333848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="554680680"/>
+        <c:axId val="335336592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554682248"/>
+        <c:crossAx val="335333848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1942,7 +1967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="554682248"/>
+        <c:axId val="335333848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1994,7 +2019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554680680"/>
+        <c:crossAx val="335336592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4032,9 +4057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
